--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.10455201828814</v>
+        <v>10.379369</v>
       </c>
       <c r="H2">
-        <v>6.10455201828814</v>
+        <v>31.138107</v>
       </c>
       <c r="I2">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J2">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1972421231003</v>
+        <v>0.2113696666666667</v>
       </c>
       <c r="N2">
-        <v>0.1972421231003</v>
+        <v>0.634109</v>
       </c>
       <c r="O2">
-        <v>0.03579594446224016</v>
+        <v>0.03795977003925348</v>
       </c>
       <c r="P2">
-        <v>0.03579594446224016</v>
+        <v>0.03795977003925347</v>
       </c>
       <c r="Q2">
-        <v>1.204074800663374</v>
+        <v>2.193883765740333</v>
       </c>
       <c r="R2">
-        <v>1.204074800663374</v>
+        <v>19.744953891663</v>
       </c>
       <c r="S2">
-        <v>0.0003460588043388906</v>
+        <v>0.0006129358459491995</v>
       </c>
       <c r="T2">
-        <v>0.0003460588043388906</v>
+        <v>0.0006129358459491993</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.10455201828814</v>
+        <v>10.379369</v>
       </c>
       <c r="H3">
-        <v>6.10455201828814</v>
+        <v>31.138107</v>
       </c>
       <c r="I3">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J3">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.58896373981385</v>
+        <v>1.589504333333333</v>
       </c>
       <c r="N3">
-        <v>1.58896373981385</v>
+        <v>4.768513</v>
       </c>
       <c r="O3">
-        <v>0.2883687160169464</v>
+        <v>0.2854582680725092</v>
       </c>
       <c r="P3">
-        <v>0.2883687160169464</v>
+        <v>0.2854582680725091</v>
       </c>
       <c r="Q3">
-        <v>9.699911804867309</v>
+        <v>16.49805200276567</v>
       </c>
       <c r="R3">
-        <v>9.699911804867309</v>
+        <v>148.482468024891</v>
       </c>
       <c r="S3">
-        <v>0.002787816736581237</v>
+        <v>0.004609290436777834</v>
       </c>
       <c r="T3">
-        <v>0.002787816736581237</v>
+        <v>0.004609290436777831</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.10455201828814</v>
+        <v>10.379369</v>
       </c>
       <c r="H4">
-        <v>6.10455201828814</v>
+        <v>31.138107</v>
       </c>
       <c r="I4">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J4">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.72397485904902</v>
+        <v>3.767380666666666</v>
       </c>
       <c r="N4">
-        <v>3.72397485904902</v>
+        <v>11.302142</v>
       </c>
       <c r="O4">
-        <v>0.6758353395208134</v>
+        <v>0.6765819618882374</v>
       </c>
       <c r="P4">
-        <v>0.6758353395208134</v>
+        <v>0.6765819618882374</v>
       </c>
       <c r="Q4">
-        <v>22.73319824186199</v>
+        <v>39.10303410279933</v>
       </c>
       <c r="R4">
-        <v>22.73319824186199</v>
+        <v>351.927306925194</v>
       </c>
       <c r="S4">
-        <v>0.006533666677554801</v>
+        <v>0.0109247589417718</v>
       </c>
       <c r="T4">
-        <v>0.006533666677554801</v>
+        <v>0.0109247589417718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>597.1554463913679</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H5">
-        <v>597.1554463913679</v>
+        <v>1812.093628</v>
       </c>
       <c r="I5">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J5">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1972421231003</v>
+        <v>0.2113696666666667</v>
       </c>
       <c r="N5">
-        <v>0.1972421231003</v>
+        <v>0.634109</v>
       </c>
       <c r="O5">
-        <v>0.03579594446224016</v>
+        <v>0.03795977003925348</v>
       </c>
       <c r="P5">
-        <v>0.03579594446224016</v>
+        <v>0.03795977003925347</v>
       </c>
       <c r="Q5">
-        <v>117.7842080671408</v>
+        <v>127.6738753730502</v>
       </c>
       <c r="R5">
-        <v>117.7842080671408</v>
+        <v>1149.064878357452</v>
       </c>
       <c r="S5">
-        <v>0.03385193527118195</v>
+        <v>0.03567002775144083</v>
       </c>
       <c r="T5">
-        <v>0.03385193527118195</v>
+        <v>0.03567002775144082</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>597.1554463913679</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H6">
-        <v>597.1554463913679</v>
+        <v>1812.093628</v>
       </c>
       <c r="I6">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J6">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.58896373981385</v>
+        <v>1.589504333333333</v>
       </c>
       <c r="N6">
-        <v>1.58896373981385</v>
+        <v>4.768513</v>
       </c>
       <c r="O6">
-        <v>0.2883687160169464</v>
+        <v>0.2854582680725092</v>
       </c>
       <c r="P6">
-        <v>0.2883687160169464</v>
+        <v>0.2854582680725091</v>
       </c>
       <c r="Q6">
-        <v>948.8583513482371</v>
+        <v>960.1102247039072</v>
       </c>
       <c r="R6">
-        <v>948.8583513482371</v>
+        <v>8640.992022335166</v>
       </c>
       <c r="S6">
-        <v>0.2727079633039695</v>
+        <v>0.2682393579701697</v>
       </c>
       <c r="T6">
-        <v>0.2727079633039695</v>
+        <v>0.2682393579701697</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>597.1554463913679</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H7">
-        <v>597.1554463913679</v>
+        <v>1812.093628</v>
       </c>
       <c r="I7">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J7">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.72397485904902</v>
+        <v>3.767380666666666</v>
       </c>
       <c r="N7">
-        <v>3.72397485904902</v>
+        <v>11.302142</v>
       </c>
       <c r="O7">
-        <v>0.6758353395208134</v>
+        <v>0.6765819618882374</v>
       </c>
       <c r="P7">
-        <v>0.6758353395208134</v>
+        <v>0.6765819618882374</v>
       </c>
       <c r="Q7">
-        <v>2223.791869305649</v>
+        <v>2275.615500105686</v>
       </c>
       <c r="R7">
-        <v>2223.791869305649</v>
+        <v>20480.53950095118</v>
       </c>
       <c r="S7">
-        <v>0.6391320165212955</v>
+        <v>0.6357703782641861</v>
       </c>
       <c r="T7">
-        <v>0.6391320165212955</v>
+        <v>0.6357703782641861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.1881897991505</v>
+        <v>28.39480333333333</v>
       </c>
       <c r="H8">
-        <v>28.1881897991505</v>
+        <v>85.18441</v>
       </c>
       <c r="I8">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="J8">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1972421231003</v>
+        <v>0.2113696666666667</v>
       </c>
       <c r="N8">
-        <v>0.1972421231003</v>
+        <v>0.634109</v>
       </c>
       <c r="O8">
-        <v>0.03579594446224016</v>
+        <v>0.03795977003925348</v>
       </c>
       <c r="P8">
-        <v>0.03579594446224016</v>
+        <v>0.03795977003925347</v>
       </c>
       <c r="Q8">
-        <v>5.559898402338664</v>
+        <v>6.001800115632222</v>
       </c>
       <c r="R8">
-        <v>5.559898402338664</v>
+        <v>54.01620104069</v>
       </c>
       <c r="S8">
-        <v>0.001597950386719319</v>
+        <v>0.001676806441863452</v>
       </c>
       <c r="T8">
-        <v>0.001597950386719319</v>
+        <v>0.001676806441863452</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.1881897991505</v>
+        <v>28.39480333333333</v>
       </c>
       <c r="H9">
-        <v>28.1881897991505</v>
+        <v>85.18441</v>
       </c>
       <c r="I9">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="J9">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.58896373981385</v>
+        <v>1.589504333333333</v>
       </c>
       <c r="N9">
-        <v>1.58896373981385</v>
+        <v>4.768513</v>
       </c>
       <c r="O9">
-        <v>0.2883687160169464</v>
+        <v>0.2854582680725092</v>
       </c>
       <c r="P9">
-        <v>0.2883687160169464</v>
+        <v>0.2854582680725091</v>
       </c>
       <c r="Q9">
-        <v>44.7900114818408</v>
+        <v>45.13366294248111</v>
       </c>
       <c r="R9">
-        <v>44.7900114818408</v>
+        <v>406.2029664823301</v>
       </c>
       <c r="S9">
-        <v>0.01287293597639568</v>
+        <v>0.01260961966556162</v>
       </c>
       <c r="T9">
-        <v>0.01287293597639568</v>
+        <v>0.01260961966556162</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.1881897991505</v>
+        <v>28.39480333333333</v>
       </c>
       <c r="H10">
-        <v>28.1881897991505</v>
+        <v>85.18441</v>
       </c>
       <c r="I10">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="J10">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.72397485904902</v>
+        <v>3.767380666666666</v>
       </c>
       <c r="N10">
-        <v>3.72397485904902</v>
+        <v>11.302142</v>
       </c>
       <c r="O10">
-        <v>0.6758353395208134</v>
+        <v>0.6765819618882374</v>
       </c>
       <c r="P10">
-        <v>0.6758353395208134</v>
+        <v>0.6765819618882374</v>
       </c>
       <c r="Q10">
-        <v>104.9721101341385</v>
+        <v>106.9740331118022</v>
       </c>
       <c r="R10">
-        <v>104.9721101341385</v>
+        <v>962.76629800622</v>
       </c>
       <c r="S10">
-        <v>0.03016965632196317</v>
+        <v>0.02988682468227935</v>
       </c>
       <c r="T10">
-        <v>0.03016965632196317</v>
+        <v>0.02988682468227935</v>
       </c>
     </row>
   </sheetData>
